--- a/crimeSpread.xlsx
+++ b/crimeSpread.xlsx
@@ -162,12 +162,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,7 +195,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -474,7 +480,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
